--- a/biology/Zoologie/Coptoclavella/Coptoclavella.xlsx
+++ b/biology/Zoologie/Coptoclavella/Coptoclavella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coptoclavella elegans
 Coptoclavella est un genre fossile de coléoptères du sous-ordre des Adephaga et des famille et sous-famille éteintes des Coptoclavidae et Coptoclaviscinae. L'espèce type est Coptoclavella elegans
@@ -512,12 +524,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Coptoclavella est décrit en 1980 par Ponomarenko[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Coptoclavella est décrit en 1980 par Ponomarenko,. 
 Les différentes espèces rattachées à ce genre sont datées du Jurassique supérieur au Crétacé inférieur et ont été trouvées en Mongolie, en Russie, en Espagne et au Royaume-Uni. 
-Selon BioLib, il s'agit d'un genre non assigné à une sous-famille (Coptoclavidae incertae sedis)[3], mais dans la famille des Coptoclavidae et la sous-famille des Coptoclaviscinae, depuis 2014, d'après Paleobiology Database en 2023[2]. 
-Selon Paleobiology Database en 2023, l'espèce type est Coptoclavella elegans[1],[2].
+Selon BioLib, il s'agit d'un genre non assigné à une sous-famille (Coptoclavidae incertae sedis), mais dans la famille des Coptoclavidae et la sous-famille des Coptoclaviscinae, depuis 2014, d'après Paleobiology Database en 2023. 
+Selon Paleobiology Database en 2023, l'espèce type est Coptoclavella elegans,.
 </t>
         </is>
       </c>
@@ -546,15 +560,17 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>†Coptoclavella elegans Ponomarenko, 1980[1] (type) - Crétacé de Mongolie
-†Coptoclavella inexpecta Soriano, Ponomarenko &amp; Delclos[4], 2007 - Crétacé d'Espagne
-†Coptoclavella jurassica Ponomarenko. 2014[5] - Jurassique de Mongolie
-†Coptoclavella minor Ponomarenko, 1980[1] - Crétacé de Mongolie
-†Coptoclavella purbeckensis Ponomarenko, Coram &amp; Jarzembowski, 2005[6] - Crétacé du Royaume-Uni
-†Coptoclavella striata Ponomarenko, 1986[7] - Crétacé de Mongolie
-†Coptoclavella vittata Ponomarenko, 1986[7] - Crétacé de Mongolie</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Coptoclavella elegans Ponomarenko, 1980 (type) - Crétacé de Mongolie
+†Coptoclavella inexpecta Soriano, Ponomarenko &amp; Delclos, 2007 - Crétacé d'Espagne
+†Coptoclavella jurassica Ponomarenko. 2014 - Jurassique de Mongolie
+†Coptoclavella minor Ponomarenko, 1980 - Crétacé de Mongolie
+†Coptoclavella purbeckensis Ponomarenko, Coram &amp; Jarzembowski, 2005 - Crétacé du Royaume-Uni
+†Coptoclavella striata Ponomarenko, 1986 - Crétacé de Mongolie
+†Coptoclavella vittata Ponomarenko, 1986 - Crétacé de Mongolie</t>
         </is>
       </c>
     </row>
